--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_0_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_0_37.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30016.10408050091</v>
+        <v>1876143.949976919</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30016.10408050091</v>
+        <v>1876143.949976919</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1264486686.581488</v>
+        <v>49321727.69523684</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11046.16741912584</v>
+        <v>1038986.058274391</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22092.33483825169</v>
+        <v>2077972.116548781</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33138.50225737753</v>
+        <v>3116958.174823172</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45336.7213196398</v>
+        <v>4093520.525169329</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57534.94038190204</v>
+        <v>5070082.875515486</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>69733.15944416428</v>
+        <v>6046645.22586164</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>81931.37850642652</v>
+        <v>7023207.576207791</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>94129.5975686888</v>
+        <v>7999769.926553943</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>106327.8166309511</v>
+        <v>8976332.276900094</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>117823.4582246329</v>
+        <v>9985458.14894319</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>128991.6369163859</v>
+        <v>11024444.20721758</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>140159.8156081389</v>
+        <v>12063430.26549198</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>151327.994299892</v>
+        <v>13102416.32376637</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>163526.2133621543</v>
+        <v>14078978.67411254</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>176572.7382648884</v>
+        <v>14965663.37062348</v>
       </c>
     </row>
   </sheetData>
